--- a/2016elections/20161204-mnhouse_pomo/builds/production/data/maindata.xlsx
+++ b/2016elections/20161204-mnhouse_pomo/builds/production/data/maindata.xlsx
@@ -12,7 +12,7 @@
     <sheet name="mnhouse2012" sheetId="3" r:id="rId3"/>
     <sheet name="source" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="148">
   <si>
     <t>district</t>
   </si>
@@ -436,13 +436,43 @@
   </si>
   <si>
     <t>Source: Minnesota Legislature</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>mnhouse2016</t>
+  </si>
+  <si>
+    <t>mnhouse2014</t>
+  </si>
+  <si>
+    <t>mnhouse2012</t>
+  </si>
+  <si>
+    <t>Minnesota House district voting percentages by party, 2016</t>
+  </si>
+  <si>
+    <t>Minnesota House district voting percentages by party, 2014</t>
+  </si>
+  <si>
+    <t>Minnesota House district voting percentages by party, 2012</t>
+  </si>
+  <si>
+    <t>Minnesota Legislature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,6 +483,30 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,14 +529,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5314,26 +5377,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/2016elections/20161204-mnhouse_pomo/builds/production/data/maindata.xlsx
+++ b/2016elections/20161204-mnhouse_pomo/builds/production/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mnhouse2016" sheetId="1" r:id="rId1"/>
     <sheet name="mnhouse2014" sheetId="2" r:id="rId2"/>
     <sheet name="mnhouse2012" sheetId="3" r:id="rId3"/>
     <sheet name="source" sheetId="4" r:id="rId4"/>
+    <sheet name="layout" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="151">
   <si>
     <t>district</t>
   </si>
@@ -466,6 +467,15 @@
   </si>
   <si>
     <t>Minnesota Legislature</t>
+  </si>
+  <si>
+    <t>Minnesota House district designation</t>
+  </si>
+  <si>
+    <t>GOP share of vote</t>
+  </si>
+  <si>
+    <t>DFL share of vote</t>
   </si>
 </sst>
 </file>
@@ -529,8 +539,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -541,11 +569,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -877,7 +923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -2357,6 +2405,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5379,8 +5428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5452,4 +5501,112 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>